--- a/picsum 사용내역.xlsx
+++ b/picsum 사용내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e09d7cfdb129ed82/＃PROJECT/※ chulmin test/Gamasan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{BF1C16DF-E3E8-464A-B5AD-10EE2A0F830D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0223D025-6FAC-459C-AA71-286A8C0836E6}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{BF1C16DF-E3E8-464A-B5AD-10EE2A0F830D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FE8319A-3D84-465D-A1A6-B6982AB79EFB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2047CE78-5708-43C2-B98F-943932003A71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2047CE78-5708-43C2-B98F-943932003A71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="12">
   <si>
     <t>_sidebar.ejs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>sidebanner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,8 +126,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B3D732-FB9C-40DF-8A35-3C306B2B4111}">
   <dimension ref="A1:B292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1346,8 +1353,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="str">
+    <row r="98" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/97/300/300</v>
       </c>
@@ -1357,176 +1364,236 @@
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/98/300/300</v>
       </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/99/300/300</v>
       </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/100/300/300</v>
       </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/101/300/300</v>
       </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/102/300/300</v>
       </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/103/300/300</v>
       </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/104/300/300</v>
       </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/105/300/300</v>
       </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/106/300/300</v>
       </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/107/300/300</v>
       </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/108/300/300</v>
       </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/109/300/300</v>
       </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/110/300/300</v>
       </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/111/300/300</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/112/300/300</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/113/300/300</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/114/300/300</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/115/300/300</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/116/300/300</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/117/300/300</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/118/300/300</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/119/300/300</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/120/300/300</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/121/300/300</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/122/300/300</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/123/300/300</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/124/300/300</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/125/300/300</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/126/300/300</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>https://picsum.photos/id/127/300/300</v>
